--- a/Music/RENAME ME TO Playlists.xlsx
+++ b/Music/RENAME ME TO Playlists.xlsx
@@ -31,10 +31,10 @@
     <t>Insert the track names starting from cell B2 and downwards (include extensions)</t>
   </si>
   <si>
-    <t>Insert the tracks into the Tracks folder</t>
-  </si>
-  <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>Insert the tracks into the Tracks folder (Create a folder called Tracks if it does not exist)</t>
   </si>
 </sst>
 </file>
@@ -426,13 +426,13 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -475,17 +475,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,6 +490,9 @@
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
